--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-2.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-2.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
@@ -314,12 +314,7 @@
     <definedName name="Test9_DMU_8">Test9!$I$2:$I$6</definedName>
     <definedName name="Test9_DMU_9">Test9!$J$2:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -458,8 +453,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,24 +500,16 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -788,53 +775,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +937,1992 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.25520833333333331</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.16838487972508592</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.12039312039312039</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.21120689655172414</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26429663608562692</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.24484736879382393</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.027574563871693866</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.054391407300962119</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.017613227893601726</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.2676252618974619</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.027543563799887576</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.034653465346534656</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3118394347139743</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13749535981333194</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.2832369942196532</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.11137003071239879</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94380488692724218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.2752808988764045</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.0962010757228904</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.18283582089552239</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.034628975265017667</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.22272727272727272</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.23557692307692307</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.83405042422292819</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.12393568394070305</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12683290733652117</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.13535911602209943</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.68333662779205384</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.26973393326224354</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.13305365252867371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28645833333333331</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.18900343642611683</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.23706896551724138</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26517584097859326</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2456618740704016</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.030951041080472707</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.054572344872255457</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.019769949676491733</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2604683438907991</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.030916245081506463</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.038896746817538894</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31287679470796059</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.13795274964204274</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.31791907514450868</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.94694453292078085</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.67073170731707321</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.3089887640449438</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.0892917964587294</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.0777743026360556</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.20522388059701493</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.038869257950530034</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.26442307692307693</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.83682496280509877</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.12434796637209386</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12725482762416074</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.15193370165745856</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.68560980430915197</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.27063122577960419</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.13349626664613964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99668444572581816</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.25128205128205128</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1678082191780822</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.12098765432098765</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.2168141592920354</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.29127522433331932</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.24921002991673777</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.028128587830080369</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.055938058753569955</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.017935578330893119</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.3172535029284671</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.026982378854625552</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0347764371894961</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32580933980491028</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13942139649934129</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.28654970760233917</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10281448582843435</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.94868276619099889</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.56321839080459768</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.274713397928166</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3007108482813172</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2901497640373689</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.19215686274509805</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.034146341463414637</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.22897196261682243</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.25257731958762886</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83762064370229772</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14488582784417545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.13325110335922294</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.13573407202216067</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.69876027489556669</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.30571276972055184</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084079872230374483</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17123287671232876</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.22123893805309736</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2074688796680498</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.028702640642939151</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.047709923664122134</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.018301610541727673</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.027533039647577095</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.035486160397444996</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.29239766081871343</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.098425196850393692</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.60568793006809529</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.24630541871921183</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.03484320557491289</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.23364485981308408</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.59752770255309506</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10460251046025104</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13850415512465375</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57674671939167721</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20039871605932011</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.053851885644365757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.25520833333333331</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.16838487972508592</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.12039312039312039</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.21120689655172414</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26429663608562692</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.24484736879382393</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.027574563871693866</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.054391407300962119</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.017613227893601726</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.2676252618974619</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.027543563799887576</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.034653465346534656</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3118394347139743</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13749535981333194</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.2832369942196532</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.11137003071239879</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94380488692724218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.2752808988764045</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.0962010757228904</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.18283582089552239</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.034628975265017667</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.22272727272727272</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.23557692307692307</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.83405042422292819</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.12393568394070305</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12683290733652117</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.13535911602209943</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.68333662779205384</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.26973393326224354</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.13305365252867371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28645833333333331</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.18900343642611683</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.23706896551724138</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26517584097859326</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2456618740704016</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.030951041080472707</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.054572344872255457</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.019769949676491733</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2604683438907991</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.030916245081506463</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.038896746817538894</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31287679470796059</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.13795274964204274</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.31791907514450868</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.94694453292078085</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.67073170731707321</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.3089887640449438</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.0892917964587294</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.0777743026360556</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.20522388059701493</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.038869257950530034</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.26442307692307693</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.83682496280509877</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.12434796637209386</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12725482762416074</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.15193370165745856</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.68560980430915197</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.27063122577960419</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.13349626664613964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99668444572581816</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.25128205128205128</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1678082191780822</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.12098765432098765</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.2168141592920354</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.29127522433331932</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.24921002991673777</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.028128587830080369</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.055938058753569955</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.017935578330893119</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.3172535029284671</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.026982378854625552</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0347764371894961</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32580933980491028</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13942139649934129</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.28654970760233917</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10281448582843435</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.94868276619099889</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.56321839080459768</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.274713397928166</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3007108482813172</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2901497640373689</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.19215686274509805</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.034146341463414637</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.22897196261682243</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.25257731958762886</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83762064370229772</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14488582784417545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.13325110335922294</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.13573407202216067</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.69876027489556669</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.30571276972055184</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084079872230374483</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17123287671232876</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.22123893805309736</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2074688796680498</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.028702640642939151</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.047709923664122134</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.018301610541727673</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.027533039647577095</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.035486160397444996</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.29239766081871343</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.098425196850393692</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.60568793006809529</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.24630541871921183</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.03484320557491289</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.23364485981308408</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.59752770255309506</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10460251046025104</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13850415512465375</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57674671939167721</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20039871605932011</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.053851885644365757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.18717007011433057</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.11293510396759282</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.10864577768000253</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.13599795432640296</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26429663608562692</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.24484736879382393</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.53495989477213524</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.019851786344934119</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.054391407300962119</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.017127738811479269</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.2676252618974619</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.026742063246488028</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.02947303207618485</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3118394347139743</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13749535981333194</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.23490107699799551</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.19065915379029516</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.11137003071239879</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94380488692724218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.35069150914685693</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.12068002513439922</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.88457307416039443</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.4073078507245642</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.90747511018151306</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.1427185468056559</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.026664438416742729</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.18476092068695221</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.19129039397963701</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.83405042422292819</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.12393568394070305</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12683290733652117</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.070981010817229545</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.68333662779205384</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.26973393326224354</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.13305365252867371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99448535298256135</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.18779270702677339</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.11331079204848009</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.10900719695779253</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.13645036291036408</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26517584097859326</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2456618740704016</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.53673948366131063</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.019917824974661262</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.054572344872255457</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.017184715668966108</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2604683438907991</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.026831022959341547</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.029571076585550232</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31287679470796059</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.13795274964204274</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.23568249510198072</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.19129339743177284</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11174051244603853</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.94694453292078085</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.35185811382003856</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.12108147734413181</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.87743142978881772</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.3980524241844146</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.89753940773915442</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.14319331200330271</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.026753139904099551</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.18537554336207512</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.19192673749446656</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.83682496280509877</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.12434796637209386</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12725482762416074</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.071217135093885067</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.68560980430915197</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.27063122577960419</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.13349626664613964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99668444572581816</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.18018816293555029</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0114521682949549</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.11090021546999729</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.092214535948642262</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.13434024831767047</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.29127522433331932</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.24921002991673777</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.55557936465420255</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.020347083457179602</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.055938058753569955</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.01758652090084499</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.3172535029284671</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.025695533570690592</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.032064679693297057</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32580933980491028</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13942139649934129</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.22841348324505281</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.19193293173805626</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10281448582843435</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.94868276619099889</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.35553041600246826</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.12507009641649031</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.93958413927483209</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3743604398613487</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.97626878459218902</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.15122594944553402</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.026159832008021241</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.17860248848323071</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.1893624014022787</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83762064370229772</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14488582784417545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.13325110335922294</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.07424775023088323</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.69876027489556669</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.30571276972055184</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084079872230374483</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.39863533708135118</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.072068315481309667</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.044355808867953782</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.036882257749008586</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.053730917946359751</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.11649885551389531</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.09967440016340065</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.22221031767289867</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0081380486144422889</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.02237306602158019</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0070339300642855082</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.56397008837525486</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.010277222375009601</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.012824635171902053</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.13031116975323187</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.055763181243782434</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.091356583598541985</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.076765770017303753</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.041121828870537613</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.37943651664837169</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.14219845391748512</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.050023214727181735</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.59000071118697106</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.84480651731160883</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.79092382495948121</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.0604845471314314</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.010462923842375094</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.071434106858397545</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.075737657026000577</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.33501595121754224</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.057948743023588822</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.053295301970307268</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.029696236424424219</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.27947715941247808</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.122273316825846</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.033628706008253136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL6" sqref="A1:AL6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -992,7 +2964,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +3006,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1076,7 +3048,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +3090,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1165,54 +3137,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +3300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +3342,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +3384,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1454,7 +3426,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1496,7 +3468,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1543,54 +3515,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +3678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1748,7 +3720,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +3762,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +3804,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1874,7 +3846,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1921,17 +3893,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL6" sqref="A1:AL6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +4019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2089,7 +4061,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2131,7 +4103,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2173,7 +4145,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2215,7 +4187,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2262,54 +4234,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="true" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +4360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +4402,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2509,7 +4444,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +4486,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +4528,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2638,1064 +4573,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-2.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-2.xlsx
@@ -1405,43 +1405,117 @@
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.93792045285926207</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71464726444482329</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.90676308603430344</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.85574358115375626</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75486918206627385</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.81467987786505391</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.74962085039127968</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.0058853342743954</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64057535706021307</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.1453561016243234</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78986671763402694</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.76396462038376078</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83538697031830644</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.71573621424205769</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.72436677232443192</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.81843402879286786</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.82813138703226008</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.657693688602208</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.6426154918937671</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1807,7 +1881,7 @@
         <v>1.0892917964587294</v>
       </c>
       <c r="AA3" s="2">
-        <v>1.0777743026360556</v>
+        <v>1.0777743026360553</v>
       </c>
       <c r="AB3" s="2">
         <v>0.20522388059701493</v>
@@ -1923,7 +1997,7 @@
         <v>1.3007108482813172</v>
       </c>
       <c r="AA4" s="2">
-        <v>1.2901497640373689</v>
+        <v>1.2901497640373687</v>
       </c>
       <c r="AB4" s="2">
         <v>0.19215686274509805</v>
@@ -1970,7 +2044,7 @@
         <v>0.25641025641025639</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0.83480350495024047</v>
       </c>
       <c r="E5" s="2">
         <v>0.17123287671232876</v>
@@ -1982,7 +2056,7 @@
         <v>0.22123893805309736</v>
       </c>
       <c r="H5" s="2">
-        <v>0.2074688796680498</v>
+        <v>0.22406639004149378</v>
       </c>
       <c r="I5" s="2">
         <v>0.22522522522522523</v>
@@ -2009,25 +2083,25 @@
         <v>0.035486160397444996</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.26455026455026454</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R5" s="2">
         <v>0.10416666666666667</v>
       </c>
       <c r="S5" s="2">
-        <v>0.29239766081871343</v>
+        <v>0.30799220324886295</v>
       </c>
       <c r="T5" s="2">
-        <v>0.24509803921568626</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="U5" s="2">
         <v>0.098425196850393692</v>
       </c>
       <c r="V5" s="2">
-        <v>0.60568793006809529</v>
+        <v>0.62220858289501701</v>
       </c>
       <c r="W5" s="2">
-        <v>0.57471264367816088</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="X5" s="2">
         <v>0.24630541871921183</v>
@@ -2039,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="AA5" s="2">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AB5" s="2">
         <v>0.19607843137254902</v>
@@ -2051,71 +2125,145 @@
         <v>0.23364485981308408</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.25773195876288657</v>
+        <v>0.27835051546391754</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.59752770255309506</v>
+        <v>0.63149996845543488</v>
       </c>
       <c r="AG5" s="2">
         <v>0.10460251046025104</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.10869565217391304</v>
+        <v>0.11739130434782609</v>
       </c>
       <c r="AI5" s="2">
         <v>0.13850415512465375</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0.57674671939167721</v>
+        <v>0.5793967757145041</v>
       </c>
       <c r="AK5" s="2">
         <v>0.20039871605932011</v>
       </c>
       <c r="AL5" s="2">
-        <v>0.053851885644365757</v>
+        <v>0.055339341142065041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.78297928141142881</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.77181904560040915</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.90676308603430344</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.85574358115375626</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75486918206627385</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.87985426809425815</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.74962085039127968</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.2064417624138093</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.2369845897542691</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.0058853342743954</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.65804759409535329</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.2369845897542693</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78986671763402694</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.76396462038376078</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83538697031830622</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.2369845897542691</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.75642919112375229</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.72436677232443192</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.88390875109629741</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.83193651455973172</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.657693688602208</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.66036532432557027</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2362,10 +2510,10 @@
         <v>0.88457307416039443</v>
       </c>
       <c r="Z2" s="2">
-        <v>1.4073078507245642</v>
+        <v>1.0585766916058388</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.90747511018151306</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="2">
         <v>0.1427185468056559</v>
@@ -2478,10 +2626,10 @@
         <v>0.87743142978881772</v>
       </c>
       <c r="Z3" s="2">
-        <v>1.3980524241844146</v>
+        <v>1.0892917964587294</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.89753940773915442</v>
+        <v>0.88030761823198556</v>
       </c>
       <c r="AB3" s="2">
         <v>0.14319331200330271</v>
@@ -2528,7 +2676,7 @@
         <v>0.18018816293555029</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0114521682949549</v>
+        <v>0.93245005321035579</v>
       </c>
       <c r="E4" s="2">
         <v>0.11090021546999729</v>
@@ -2594,10 +2742,10 @@
         <v>0.93958413927483209</v>
       </c>
       <c r="Z4" s="2">
-        <v>1.3743604398613487</v>
+        <v>0.93906690333544973</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.97626878459218902</v>
+        <v>0.94919010791261349</v>
       </c>
       <c r="AB4" s="2">
         <v>0.15122594944553402</v>
@@ -2753,43 +2901,117 @@
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.39775578480104756</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.4012919361070777</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0600740466797598</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.40129193610707753</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.40129193610707753</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.4012919361070777</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.42572363932167279</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.4012919361070777</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.40129193610707753</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.62286844452047685</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.92572635247362911</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.73352668000740795</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.40129193610707753</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.40129193610707764</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.40129193610707758</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2926,211 +3148,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.2676252618974619</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.0962010757228904</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.68333662779205384</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2604683438907991</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.67073170731707321</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.3089887640449438</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.0892917964587294</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.4686181120846589</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.68560980430915197</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.3172535029284671</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.56321839080459768</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.3395587929888688</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3007108482813172</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>2.0411837726197732</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.69876027489556669</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26372272476737024</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.78043074211103536</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18377767736104833</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25961538461538464</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.22389210019267825</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.23003014318010551</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.24250193786894042</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.59764878765613516</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.049270072992700732</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.077253218884120164</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.073469387755102047</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.12026726057906457</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.091993185689948895</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.31952662721893493</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.20149253731343283</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.30811773173226253</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.29009265858873845</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.18881118881118883</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.61511361557701616</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.24751239996348479</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.20230308155296339</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.045996592844974447</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.27263592720777041</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.28954232866967039</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.62936449788809257</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.13775510204081631</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.12997658079625293</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.14546560080118748</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57674671939167721</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20895011551296308</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.52941176470588247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.68551528146052443</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.73198195506607222</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.44060983516375557</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.77597386277959279</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.34718835275009707</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.42174250064163554</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.68859534229945996</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75486918206627385</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.5473395731392986</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.20000177082826071</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.48521384582783256</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.1453561016243234</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.82878071253576813</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.75163083010273235</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.76396462038376078</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.71949333116623282</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.66785147730062133</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.23284124218054922</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.31831672158094193</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.42804604048910633</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.175993134245858</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.566502681381022</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.82813138703226008</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.37442303307757663</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.16770186335403731</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3304,211 +3896,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.25520833333333331</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.16838487972508592</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.12039312039312039</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.21120689655172414</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.24484736879382393</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.027574563871693866</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.054391407300962119</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.017613227893601726</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.2676252618974619</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.027543563799887576</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.034653465346534656</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3118394347139743</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13749535981333194</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.2832369942196532</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.11137003071239879</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.2752808988764045</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.0962010757228904</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.18283582089552239</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.034628975265017667</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.22272727272727272</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.12393568394070305</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.13535911602209943</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.68333662779205384</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.26973393326224354</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28645833333333331</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.18900343642611683</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.23706896551724138</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2456618740704016</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.030951041080472707</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.054572344872255457</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.019769949676491733</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2604683438907991</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.030916245081506463</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.038896746817538894</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31287679470796059</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.13795274964204274</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.31791907514450868</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.67073170731707321</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.3089887640449438</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.0892917964587294</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.0777743026360553</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.20522388059701493</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.038869257950530034</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.12434796637209386</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.15193370165745856</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.68560980430915197</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.27063122577960419</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.25128205128205128</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1678082191780822</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.12098765432098765</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.2168141592920354</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.24921002991673777</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.028128587830080369</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.055938058753569955</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.017935578330893119</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.3172535029284671</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.026982378854625552</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0347764371894961</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13942139649934129</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.28654970760233917</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10281448582843435</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.274713397928166</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3007108482813172</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2901497640373687</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.19215686274509805</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.034146341463414637</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.22897196261682243</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14488582784417545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.13573407202216067</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.69876027489556669</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.30571276972055184</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17123287671232876</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12356979405383421</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.22123893805309736</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.22406639047077936</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.028702640642939151</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.047709923664122134</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.018301610541727673</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.027533039647577095</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.038180532731472316</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.285714286218191</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.31334622893272829</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.26470588283352553</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.10125000008968749</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.62220858319224548</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.62068965575373236</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.24630541871921183</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.03484320557491289</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.23364485981308408</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.27835051595989657</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.63149996901539263</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10460251046025104</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11739130460365471</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13850415512465375</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.58524207757441948</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20170808238287072</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.055339341208166658</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.94886456064489821</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.1464044825277622</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.22406639047077936</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.90676308603430344</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.85574358115375626</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75486918206627385</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.2323200266661585</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.28666473871790438</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.74962085039127968</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.2274141120834277</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.26470588283352553</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.0347542442846585</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.62220858319224548</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.69669247074398544</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78986671763402694</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.76396462038376078</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83538697031830622</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1.145356101624323</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.27835051595989657</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.63149996901539263</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.72436677232443192</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.11739130460365471</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.84032958863214202</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.6619909315386977</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.055339341208166658</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,211 +4644,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.31568363794438487</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.26813796024404069</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.18814923612336118</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.27376755665059294</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26429663608562692</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2042416266796734</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.612384719910672</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.22346554999433826</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4620829754957263</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.43302385737625065</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.06544711436993926</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.51516698480722245</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.2898004025459824</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.29162663111946296</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.19282663588468124</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94380488692724218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.2323450592996019</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.84605906107532158</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1437830424425963</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1.7046472360069367</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.16694808853079088</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.5144429443443534</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.23557692307692307</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.83405042422292819</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1.2550239208240723</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12683290733652117</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.61648861688342182</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.7041614538993185</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.28617432971639711</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.13305365252867371</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.36067101815024422</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.31141611333086916</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.21828251725162959</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.31384070862321656</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26517584097859326</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.1726764617885146</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.3588619613892605</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.74860483492209984</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.26075873889763423</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.2303110051165342</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2668061058901245</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.52850416828730429</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.07668538441158386</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.50040758484957626</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.543192000265865</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.32821447560554468</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.21107707226808592</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.94694453292078085</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.2884114278534371</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.0094231004087992</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1361975423867881</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.0777743026360556</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>2.0727251958330828</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.20124556529122026</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.5284408643632492</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.26442307692307693</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.83682496280509877</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1.2296835121589085</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12725482762416074</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.74235506841505439</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.71100573850028059</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.29068033563892248</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.13349626664613964</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.99668444572581816</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.44480302771211694</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.057540793532399</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.20699697715122756</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.49938903682479524</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.29127522433331932</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.59097280467626312</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.65435154582850374</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.57969670007212493</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.23152464766617992</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.82312379305593952</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4219248931806165</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.55847239730840592</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.038896826948254498</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32580933980491028</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.30512836082583072</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.29503746891033389</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.16234705613778297</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.94868276619099889</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.56321839080459768</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.67036669745482258</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.274713397928166</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3007108482813172</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2901497640373689</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.85809669539362821</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.3082448682660493</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.0496275076663855</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.25257731958762886</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83762064370229772</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1.5378197390747512</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.13325110335922294</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.79509917390399765</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.72005513986187553</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.38956272035480288</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084079872230374483</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26352274191470165</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2075789908446341</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1265835349587443</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.23217859207542133</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2074688796680498</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.23663361854316625</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.15365925293033936</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.053463884307031334</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.1522385001536728</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.035528957776818797</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.1086892797319933</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.29239766081871343</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.10032445693032088</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.60568793006809529</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.2632373691115677</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.22303675238939794</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.046105089909477696</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.26689522378246366</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.59752770255309506</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.17457862125818585</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.16539762524534027</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57674671939167721</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.2027651541204884</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.053851885644365757</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.67687665980630329</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.93792045285926207</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.22796545792193326</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.70946293339610866</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.53297945096197319</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71464726444482329</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.38991821311890945</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.0766543153325094</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.3240307091001895</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.26945830133022347</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.494685265443326</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.60934250050907368</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.33270503731602974</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.0702626983279178</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.7887157824191301</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.42618836569261748</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.115391346317776</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.67645114592484878</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64057535706021307</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.0668323199779479</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.46849792169184273</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78986671763402694</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.7637116748200482</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83538697031830644</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.3160438992378497</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.18030089648677702</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.25662639455842529</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.71573621424205769</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.11123129016530547</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.81843402879286786</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.25049241713135006</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.80876106612089571</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.52868977474743784</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.6426154918937671</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4023,211 +5355,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.3384978233976828</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.2585005362264676</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.4033110382669867</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.84194840985493702</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26429663608562692</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.0082356551077007</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.1023418946034673</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.2692197994614558</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.87242488332879387</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.94332929535678234</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.4248541190310118</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1.362885611490928</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1.3002312149469628</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94380488692724218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.3581876407532456</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>2.0809984838590769</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1.3210683303352315</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.2950192921298356</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.23557692307692307</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.83405042422292819</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1.1731372356838503</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12683290733652117</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1.1873673118802688</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.60066647352748925</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1.4971226226561782</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.13305365252867371</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.1055828097012173</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.1005833033049166</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1037271390824708</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.64493177697208526</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26517584097859326</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.87251224421790075</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.1579693017105024</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.0906831770687944</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.2397154202685197</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.98209190179018335</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.92773847219240035</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.87954475081389372</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.95457625565521875</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.35861051943414118</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.4540322618897543</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.1909015242766905</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.192327159744915</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.94694453292078085</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.74273060818021686</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.3067315724961841</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>8.3436112583661561</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.0777743026360553</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>2.0688847577200895</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.2942043290873189</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.3573099975153522</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.26442307692307693</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.83682496280509877</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1.1713457493769079</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12725482762416074</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1.1290214612108793</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.82753327537000743</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1.044928675089305</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.13349626664613964</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.99668444572581816</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3022477902227492</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0964902109654073</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.3893730571987648</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.83491791040482111</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.29127522433331932</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.0458398225553251</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0353857825674087</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.1125730657174191</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.1490661508157096</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.005231651958171</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.9673911245956424</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.8159312820309943</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.93725728806796305</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32580933980491028</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.3900439739877584</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.2163044817836826</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.216981246885378</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.94868276619099889</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.56321839080459768</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.0692490173633766</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.274713397928166</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.3007108482813172</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2901497640373687</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2.2191271587647536</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1.2788499304124739</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.2788726614264272</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.25257731958762886</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83762064370229772</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1.3705423290718766</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.13325110335922294</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.149585417137851</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.59949251741077803</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.4881154944207635</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084079872230374483</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.41758186189778113</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.29282530867026391</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.20009394414754547</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.36886280862400894</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2074688796680498</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.42912047211602455</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.28604942345349565</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.098966535926548291</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.031721923466328912</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.28430587972143528</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.041197232911660261</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.23828560270339164</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.29239766081871343</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.16546932226832656</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.60568793006809529</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.41436552137391758</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.98913944653381369</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.33385265920759405</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.059752087869226589</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.39798102083047054</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.59752770255309506</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.26009951166458084</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.23667758252570095</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.42864362304513093</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.053851885644365757</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.26486318997144637</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.93792045285926195</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.23354650147611375</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.11327207392248013</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.33841482980559873</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71464726444482329</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.3550778144228513</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1183940529288783</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.25438695465371536</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.084125663521577174</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.030991706324410444</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.47155771955771036</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.35128706170379159</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.044479154818611373</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.29118412579460384</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.17493346722567876</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.21006225897966402</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.12468334667592555</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64057535706021307</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.75788837569409884</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.37284760849047122</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78986671763402694</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>6.3449882293967335</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83538697031830644</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.14956748378871643</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.045773178149283486</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.32616538438415044</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.71573621424205769</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.18948872337306333</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.81843402879286786</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.19576407081052027</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2.2980967408516166</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.20104302156690229</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.6426154918937671</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4364,211 +6066,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.5526764007266667</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.97301249208241891</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.12039312039312039</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.87299478722333779</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.0631970119911669</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.90307514000550504</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.24406487226629586</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.42353722462743915</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.1403717946388906</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.2676252618974619</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.074436215260615154</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.13915549392045373</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3118394347139743</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13749535981333194</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1.059592571895982</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.11137003071239879</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94380488692724218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.3749421559894288</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.530724353905218</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3054091922646189</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.4789663677549185</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1.7011584500177752</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.35143623562885934</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.22272727272727272</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28724413998019138</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.83405042422292819</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.24576755297516378</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.32988304958535708</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1.2356563937268441</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.13305365252867371</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.1410654257710584</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.511248134131207</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98846610123345924</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.93303865412921139</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.0320949962777426</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.84489167574472934</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.0250469365188457</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.88732743317575591</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.23348999642370519</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.4064755655610246</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.13465896254225787</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2604683438907991</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.072254284220533413</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.13403116046852215</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31287679470796059</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.13795274964204274</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.0211074507975622</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.94694453292078085</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.4121381742513386</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.5576315241471177</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.314356058987604</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.4807206098343644</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.0777743026360553</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1.6277316601873837</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.33608496488363837</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.31493479696269383</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.83682496280509877</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.24037898030966079</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.3206370195909895</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.99723756906077343</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1.0682813566539857</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1.1905626309284121</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.13349626664613964</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.99668444572581816</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.4579355323987604</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0538911889810145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.95548054799598647</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.12098765432098765</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.982858369683139</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.96210741179435133</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.0821409291468289</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.9378832271771963</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.25015422988548597</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.4355807531222779</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.14413178105281726</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.3172535029284671</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.071523212344338311</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.15139183266208006</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32580933980491028</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13942139649934129</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.03032831207245</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10281448582843435</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.94868276619099889</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1.2611861168836285</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.3210033289812477</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.274713397928166</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.5574643477528165</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2901497640373687</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1.8025639100119815</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.34478554327285882</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.22897196261682243</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.3079730985354629</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.83762064370229772</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.2873122109616193</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.3465763046819057</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.0343634825183736</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.85386545273908732</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.4004761432143444</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084079872230374483</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.66551856104094886</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.37134532815375176</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.29578820153072366</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.34852363376592449</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.69152750742751767</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.14507752984586317</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.086390691730840366</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.035242892419309016</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.036816646936676439</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.056727832092620445</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.45911585130226434</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.10122185993270663</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.60568793006809529</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.952478606511722</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.26096731743726531</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.23541520853061054</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.29825378082565057</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.59752770255309506</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.12913623702946458</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.1426690289216625</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.71336852042788124</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.33384644200461594</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.053851885644365757</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1448612754662759</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.44430037232044284</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.93792045285926207</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.37268107081493157</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0500953424352246</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.29754089649704335</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.31051201868361267</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.72447051083748393</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.55482408211289047</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.19034484849010425</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.23456715623423074</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75486918206627385</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.49966225183271473</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.36091020418654651</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.81467987786505391</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.74962085039127968</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.42941696050555156</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.1453561016243232</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.0344666576491524</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64057535706021307</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.77565538896899044</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.77030696395902909</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78986671763402694</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83538697031830644</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.53082011588841682</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.72383506757029159</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1.154034570764384</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.0617998165365896</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.71573621424205769</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.43960840385961714</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.40011469378748965</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.68776392552445342</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1.2511120495940906</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.22968126061971511</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.6426154918937671</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
